--- a/src/test/resources/TestDriver/TestRevenue/Model/Revenue_model_changed_V4.xlsx
+++ b/src/test/resources/TestDriver/TestRevenue/Model/Revenue_model_changed_V4.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestRevenue\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801F3962-D5A4-4CF9-9130-F425D6FB81B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0879ED3B-B76E-4FC1-97BE-142D7BD36720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="xxJOB" sheetId="10" r:id="rId1"/>
-    <sheet name="xxCATALOG" sheetId="11" r:id="rId2"/>
+    <sheet name="CATALOG" sheetId="11" r:id="rId2"/>
     <sheet name="REV" sheetId="1" r:id="rId3"/>
     <sheet name="INV" sheetId="2" r:id="rId4"/>
     <sheet name="EOD" sheetId="3" r:id="rId5"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="126">
   <si>
     <t>PostingDate</t>
   </si>
@@ -121,36 +121,6 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>Discount</t>
-  </si>
-  <si>
-    <t>AMOUNT</t>
-  </si>
-  <si>
-    <t>POINT_IN_TIME</t>
-  </si>
-  <si>
-    <t>SaaS Basic Subscription</t>
-  </si>
-  <si>
-    <t>USE SALES PRICE</t>
-  </si>
-  <si>
-    <t>RATABLE</t>
-  </si>
-  <si>
-    <t>SaaS Implementation</t>
-  </si>
-  <si>
-    <t>SaaS Training</t>
-  </si>
-  <si>
-    <t>SaaS Premium Subscription</t>
-  </si>
-  <si>
-    <t>Invoice</t>
-  </si>
-  <si>
     <t>REVENUE ALLOCATION</t>
   </si>
   <si>
@@ -475,7 +445,7 @@
     <t>ReplayDate</t>
   </si>
   <si>
-    <t>RevRec_Metod</t>
+    <t>RevRec_Method</t>
   </si>
 </sst>
 </file>
@@ -777,6 +747,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -809,8 +781,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1112,13 +1082,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" s="84" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" s="84" t="s">
-        <v>134</v>
+        <v>122</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1156,29 +1126,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="78">
+      <c r="A1" s="80">
         <v>44592</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="L1" s="79" t="s">
-        <v>90</v>
-      </c>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="L1" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1195,31 +1165,31 @@
         <v>3</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="L3" s="42" t="s">
         <v>0</v>
       </c>
       <c r="M3" s="42" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N3" s="42" t="s">
         <v>2</v>
       </c>
       <c r="O3" s="42" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="P3" s="42" t="s">
         <v>16</v>
@@ -1236,7 +1206,7 @@
         <v>44592</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D4" s="5">
         <v>0</v>
@@ -1255,10 +1225,10 @@
         <v>44592</v>
       </c>
       <c r="N4" s="44" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="O4" s="44" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="P4" s="45">
         <v>-47.592954990215297</v>
@@ -1275,7 +1245,7 @@
         <v>44592</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
@@ -1302,10 +1272,10 @@
         <v>44592</v>
       </c>
       <c r="N5" s="44" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="O5" s="44" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="P5" s="45">
         <v>-271.42857142857099</v>
@@ -1322,7 +1292,7 @@
         <v>44592</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
@@ -1349,10 +1319,10 @@
         <v>44592</v>
       </c>
       <c r="N6" s="44" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="O6" s="44" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="P6" s="45">
         <v>-23.796477495107599</v>
@@ -1369,7 +1339,7 @@
         <v>44592</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D7" s="5">
         <v>3</v>
@@ -1396,10 +1366,10 @@
         <v>44592</v>
       </c>
       <c r="N7" s="44" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="O7" s="44" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P7" s="45">
         <v>342.81800391389402</v>
@@ -1416,7 +1386,7 @@
         <v>44592</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D8" s="5">
         <v>4</v>
@@ -1439,7 +1409,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1456,15 +1426,15 @@
         <v>3</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -1481,42 +1451,42 @@
         <v>3</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="78">
+      <c r="A19" s="80">
         <v>44620</v>
       </c>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="L19" s="79" t="s">
-        <v>90</v>
-      </c>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="79"/>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="79"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="L19" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="81"/>
+      <c r="P19" s="81"/>
+      <c r="Q19" s="81"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -1533,31 +1503,31 @@
         <v>3</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="L21" s="42" t="s">
         <v>0</v>
       </c>
       <c r="M21" s="42" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N21" s="42" t="s">
         <v>2</v>
       </c>
       <c r="O21" s="42" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="P21" s="42" t="s">
         <v>16</v>
@@ -1574,7 +1544,7 @@
         <v>44592</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D22" s="5">
         <v>0</v>
@@ -1593,10 +1563,10 @@
         <v>44620</v>
       </c>
       <c r="N22" s="44" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="O22" s="44" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="P22" s="45">
         <v>-83.287671232876704</v>
@@ -1613,7 +1583,7 @@
         <v>44592</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D23" s="5">
         <v>1</v>
@@ -1640,10 +1610,10 @@
         <v>44620</v>
       </c>
       <c r="N23" s="44" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="O23" s="44" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="P23" s="45">
         <v>-3.97903932025656E-13</v>
@@ -1660,7 +1630,7 @@
         <v>44592</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D24" s="5">
         <v>2</v>
@@ -1687,10 +1657,10 @@
         <v>44620</v>
       </c>
       <c r="N24" s="44" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="O24" s="44" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="P24" s="45">
         <v>-41.643835616438402</v>
@@ -1707,7 +1677,7 @@
         <v>44592</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D25" s="5">
         <v>3</v>
@@ -1734,10 +1704,10 @@
         <v>44620</v>
       </c>
       <c r="N25" s="44" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="O25" s="44" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P25" s="45">
         <v>-342.81800391389402</v>
@@ -1754,7 +1724,7 @@
         <v>44592</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D26" s="5">
         <v>4</v>
@@ -1777,7 +1747,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -1794,10 +1764,10 @@
         <v>3</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -1808,7 +1778,7 @@
         <v>44620</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1822,7 +1792,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -1839,16 +1809,16 @@
         <v>3</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -1859,7 +1829,7 @@
         <v>44620</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1885,7 +1855,7 @@
         <v>44620</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1911,7 +1881,7 @@
         <v>44620</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -1937,7 +1907,7 @@
         <v>44620</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -1963,7 +1933,7 @@
         <v>44620</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D38">
         <v>4</v>
@@ -1982,25 +1952,25 @@
       </c>
     </row>
     <row r="41" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A41" s="78">
+      <c r="A41" s="80">
         <v>44651</v>
       </c>
-      <c r="B41" s="78"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78"/>
-      <c r="I41" s="78"/>
-      <c r="L41" s="79" t="s">
-        <v>90</v>
-      </c>
-      <c r="M41" s="79"/>
-      <c r="N41" s="79"/>
-      <c r="O41" s="79"/>
-      <c r="P41" s="79"/>
-      <c r="Q41" s="79"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="80"/>
+      <c r="I41" s="80"/>
+      <c r="L41" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="M41" s="81"/>
+      <c r="N41" s="81"/>
+      <c r="O41" s="81"/>
+      <c r="P41" s="81"/>
+      <c r="Q41" s="81"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -2016,31 +1986,31 @@
         <v>3</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="L43" s="42" t="s">
         <v>0</v>
       </c>
       <c r="M43" s="42" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N43" s="42" t="s">
         <v>2</v>
       </c>
       <c r="O43" s="42" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="P43" s="42" t="s">
         <v>16</v>
@@ -2057,7 +2027,7 @@
         <v>44592</v>
       </c>
       <c r="C44" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D44" s="5">
         <v>0</v>
@@ -2076,10 +2046,10 @@
         <v>44651</v>
       </c>
       <c r="N44" s="44" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="O44" s="44" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="P44" s="45">
         <v>-92.211376516634004</v>
@@ -2096,7 +2066,7 @@
         <v>44592</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D45" s="5">
         <v>1</v>
@@ -2123,10 +2093,10 @@
         <v>44651</v>
       </c>
       <c r="N45" s="44" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="O45" s="44" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="P45" s="45">
         <v>2.8571428629220501E-5</v>
@@ -2143,7 +2113,7 @@
         <v>44592</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D46" s="5">
         <v>2</v>
@@ -2170,10 +2140,10 @@
         <v>44651</v>
       </c>
       <c r="N46" s="44" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="O46" s="44" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="P46" s="45">
         <v>-46.105688258317002</v>
@@ -2190,7 +2160,7 @@
         <v>44592</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D47" s="5">
         <v>3</v>
@@ -2219,7 +2189,7 @@
         <v>44592</v>
       </c>
       <c r="C48" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D48" s="5">
         <v>4</v>
@@ -2242,7 +2212,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
@@ -2259,15 +2229,15 @@
         <v>3</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
@@ -2284,16 +2254,16 @@
         <v>3</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
@@ -2304,7 +2274,7 @@
         <v>44651</v>
       </c>
       <c r="C55" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2330,7 +2300,7 @@
         <v>44651</v>
       </c>
       <c r="C56" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -2356,7 +2326,7 @@
         <v>44651</v>
       </c>
       <c r="C57" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -2382,7 +2352,7 @@
         <v>44651</v>
       </c>
       <c r="C58" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D58">
         <v>3</v>
@@ -2408,7 +2378,7 @@
         <v>44651</v>
       </c>
       <c r="C59" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D59">
         <v>4</v>
@@ -2427,29 +2397,29 @@
       </c>
     </row>
     <row r="62" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A62" s="78">
+      <c r="A62" s="80">
         <v>44681</v>
       </c>
-      <c r="B62" s="78"/>
-      <c r="C62" s="78"/>
-      <c r="D62" s="78"/>
-      <c r="E62" s="78"/>
-      <c r="F62" s="78"/>
-      <c r="G62" s="78"/>
-      <c r="H62" s="78"/>
-      <c r="I62" s="78"/>
-      <c r="L62" s="79" t="s">
-        <v>90</v>
-      </c>
-      <c r="M62" s="79"/>
-      <c r="N62" s="79"/>
-      <c r="O62" s="79"/>
-      <c r="P62" s="79"/>
-      <c r="Q62" s="79"/>
+      <c r="B62" s="80"/>
+      <c r="C62" s="80"/>
+      <c r="D62" s="80"/>
+      <c r="E62" s="80"/>
+      <c r="F62" s="80"/>
+      <c r="G62" s="80"/>
+      <c r="H62" s="80"/>
+      <c r="I62" s="80"/>
+      <c r="L62" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="M62" s="81"/>
+      <c r="N62" s="81"/>
+      <c r="O62" s="81"/>
+      <c r="P62" s="81"/>
+      <c r="Q62" s="81"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
@@ -2466,31 +2436,31 @@
         <v>3</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="L65" s="42" t="s">
         <v>0</v>
       </c>
       <c r="M65" s="42" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N65" s="42" t="s">
         <v>2</v>
       </c>
       <c r="O65" s="42" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="P65" s="42" t="s">
         <v>16</v>
@@ -2507,7 +2477,7 @@
         <v>44592</v>
       </c>
       <c r="C66" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D66" s="5">
         <v>0</v>
@@ -2526,10 +2496,10 @@
         <v>44681</v>
       </c>
       <c r="N66" s="44" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="O66" s="44" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="P66" s="45">
         <v>-96.542703196347006</v>
@@ -2546,7 +2516,7 @@
         <v>44592</v>
       </c>
       <c r="C67" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D67" s="5">
         <v>1</v>
@@ -2573,10 +2543,10 @@
         <v>44681</v>
       </c>
       <c r="N67" s="44" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="O67" s="44" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="P67" s="45">
         <v>-6.3491777777777498</v>
@@ -2593,7 +2563,7 @@
         <v>44592</v>
       </c>
       <c r="C68" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D68" s="5">
         <v>2</v>
@@ -2620,10 +2590,10 @@
         <v>44681</v>
       </c>
       <c r="N68" s="44" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="O68" s="44" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="P68" s="45">
         <v>-208.08870319634701</v>
@@ -2640,7 +2610,7 @@
         <v>44592</v>
       </c>
       <c r="C69" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D69" s="5">
         <v>3</v>
@@ -2669,7 +2639,7 @@
         <v>44592</v>
       </c>
       <c r="C70" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D70" s="5">
         <v>4</v>
@@ -2692,7 +2662,7 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
@@ -2709,10 +2679,10 @@
         <v>3</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
@@ -2725,7 +2695,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
@@ -2742,16 +2712,16 @@
         <v>3</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
@@ -2762,7 +2732,7 @@
         <v>44681</v>
       </c>
       <c r="C78" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -2788,7 +2758,7 @@
         <v>44681</v>
       </c>
       <c r="C79" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -2814,7 +2784,7 @@
         <v>44681</v>
       </c>
       <c r="C80" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D80">
         <v>2</v>
@@ -2840,7 +2810,7 @@
         <v>44681</v>
       </c>
       <c r="C81" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D81">
         <v>3</v>
@@ -2866,7 +2836,7 @@
         <v>44681</v>
       </c>
       <c r="C82" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D82">
         <v>4</v>
@@ -2885,29 +2855,29 @@
       </c>
     </row>
     <row r="85" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A85" s="78">
+      <c r="A85" s="80">
         <v>44712</v>
       </c>
-      <c r="B85" s="78"/>
-      <c r="C85" s="78"/>
-      <c r="D85" s="78"/>
-      <c r="E85" s="78"/>
-      <c r="F85" s="78"/>
-      <c r="G85" s="78"/>
-      <c r="H85" s="78"/>
-      <c r="I85" s="78"/>
-      <c r="L85" s="79" t="s">
-        <v>90</v>
-      </c>
-      <c r="M85" s="79"/>
-      <c r="N85" s="79"/>
-      <c r="O85" s="79"/>
-      <c r="P85" s="79"/>
-      <c r="Q85" s="79"/>
+      <c r="B85" s="80"/>
+      <c r="C85" s="80"/>
+      <c r="D85" s="80"/>
+      <c r="E85" s="80"/>
+      <c r="F85" s="80"/>
+      <c r="G85" s="80"/>
+      <c r="H85" s="80"/>
+      <c r="I85" s="80"/>
+      <c r="L85" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="M85" s="81"/>
+      <c r="N85" s="81"/>
+      <c r="O85" s="81"/>
+      <c r="P85" s="81"/>
+      <c r="Q85" s="81"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
@@ -2924,31 +2894,31 @@
         <v>3</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="L88" s="42" t="s">
         <v>0</v>
       </c>
       <c r="M88" s="42" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N88" s="42" t="s">
         <v>2</v>
       </c>
       <c r="O88" s="42" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="P88" s="42" t="s">
         <v>16</v>
@@ -2965,7 +2935,7 @@
         <v>44592</v>
       </c>
       <c r="C89" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D89" s="5">
         <v>0</v>
@@ -2984,10 +2954,10 @@
         <v>44712</v>
       </c>
       <c r="N89" s="44" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="O89" s="44" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="P89" s="45">
         <v>-94.368344140030402</v>
@@ -3004,7 +2974,7 @@
         <v>44592</v>
       </c>
       <c r="C90" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D90" s="5">
         <v>1</v>
@@ -3031,10 +3001,10 @@
         <v>44712</v>
       </c>
       <c r="N90" s="44" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="O90" s="44" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="P90" s="45">
         <v>2.2222222241907699E-5</v>
@@ -3051,7 +3021,7 @@
         <v>44592</v>
       </c>
       <c r="C91" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D91" s="5">
         <v>2</v>
@@ -3078,10 +3048,10 @@
         <v>44712</v>
       </c>
       <c r="N91" s="44" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="O91" s="44" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="P91" s="45">
         <v>-94.368344140030402</v>
@@ -3098,7 +3068,7 @@
         <v>44592</v>
       </c>
       <c r="C92" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D92" s="5">
         <v>3</v>
@@ -3127,7 +3097,7 @@
         <v>44592</v>
       </c>
       <c r="C93" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D93" s="5">
         <v>4</v>
@@ -3150,7 +3120,7 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
@@ -3167,10 +3137,10 @@
         <v>3</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -3181,7 +3151,7 @@
         <v>44712</v>
       </c>
       <c r="C97" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -3195,7 +3165,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -3212,16 +3182,16 @@
         <v>3</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -3232,7 +3202,7 @@
         <v>44712</v>
       </c>
       <c r="C101" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -3258,7 +3228,7 @@
         <v>44712</v>
       </c>
       <c r="C102" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -3284,7 +3254,7 @@
         <v>44712</v>
       </c>
       <c r="C103" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D103">
         <v>2</v>
@@ -3310,7 +3280,7 @@
         <v>44712</v>
       </c>
       <c r="C104" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D104">
         <v>3</v>
@@ -3336,7 +3306,7 @@
         <v>44712</v>
       </c>
       <c r="C105" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D105">
         <v>4</v>
@@ -3417,71 +3387,71 @@
       <c r="V1" s="46"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="H2" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="M2" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
+      <c r="A2" s="83" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="H2" s="84" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="M2" s="84" t="s">
+        <v>94</v>
+      </c>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D3" s="31" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G3" s="26"/>
       <c r="H3" s="47" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I3" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="47" t="s">
-        <v>55</v>
-      </c>
       <c r="K3" s="47" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="M3" s="47" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="N3" s="47" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="O3" s="47" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="P3" s="47" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="Q3" s="47"/>
       <c r="S3" s="26"/>
@@ -3498,13 +3468,13 @@
         <v>44592</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D4" s="48">
         <v>-47.592954990215297</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F4" s="49">
         <v>2</v>
@@ -3515,11 +3485,11 @@
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="50"/>
-      <c r="M4" s="83" t="s">
-        <v>114</v>
+      <c r="M4" s="85" t="s">
+        <v>104</v>
       </c>
       <c r="N4" s="51" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="O4" s="48">
         <f>-I7</f>
@@ -3537,13 +3507,13 @@
         <v>44592</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D5" s="48">
         <v>-271.42857142857099</v>
       </c>
       <c r="E5" s="48" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F5" s="49">
         <v>3</v>
@@ -3554,9 +3524,9 @@
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="50"/>
-      <c r="M5" s="83"/>
+      <c r="M5" s="85"/>
       <c r="N5" s="51" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="O5" s="48"/>
       <c r="P5" s="48">
@@ -3565,22 +3535,22 @@
       </c>
       <c r="Q5" s="30"/>
       <c r="AE5" s="10" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="AF5" s="10" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="AG5" s="10" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="AH5" s="10" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="AI5" s="10" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="AJ5" s="10" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
@@ -3591,13 +3561,13 @@
         <v>44592</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D6" s="48">
         <v>-23.796477495107599</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F6" s="49">
         <v>4</v>
@@ -3608,9 +3578,9 @@
       <c r="J6" s="48"/>
       <c r="K6" s="48"/>
       <c r="L6" s="50"/>
-      <c r="M6" s="83"/>
+      <c r="M6" s="85"/>
       <c r="N6" s="48" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="O6" s="48">
         <f>J7</f>
@@ -3627,13 +3597,13 @@
         <v>44592</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D7" s="54">
         <v>342.81800391389402</v>
       </c>
       <c r="E7" s="54" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F7" s="55">
         <v>0</v>
@@ -3655,9 +3625,9 @@
         <v>0</v>
       </c>
       <c r="L7" s="50"/>
-      <c r="M7" s="83"/>
+      <c r="M7" s="85"/>
       <c r="N7" s="51" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="O7" s="48"/>
       <c r="P7" s="48">
@@ -3675,13 +3645,13 @@
         <v>44620</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D8" s="48">
         <v>-83.287671232876704</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F8" s="49">
         <v>2</v>
@@ -3710,13 +3680,13 @@
         <v>44620</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D9" s="48">
         <v>-41.643835616438402</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F9" s="49">
         <v>4</v>
@@ -3727,11 +3697,11 @@
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="50"/>
-      <c r="M9" s="83" t="s">
-        <v>117</v>
+      <c r="M9" s="85" t="s">
+        <v>107</v>
       </c>
       <c r="N9" s="51" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="O9" s="48">
         <f>-(D8+D9)</f>
@@ -3749,13 +3719,13 @@
         <v>44620</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D10" s="48">
         <v>-342.81800391389402</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F10" s="49">
         <v>0</v>
@@ -3766,9 +3736,9 @@
       <c r="J10" s="48"/>
       <c r="K10" s="48"/>
       <c r="L10" s="50"/>
-      <c r="M10" s="83"/>
+      <c r="M10" s="85"/>
       <c r="N10" s="51" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="O10" s="48"/>
       <c r="P10" s="48">
@@ -3785,13 +3755,13 @@
         <v>44620</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D11" s="54">
         <v>1900</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F11" s="55">
         <v>0</v>
@@ -3814,9 +3784,9 @@
         <v>1432.2504892367911</v>
       </c>
       <c r="L11" s="50"/>
-      <c r="M11" s="83"/>
+      <c r="M11" s="85"/>
       <c r="N11" s="51" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="O11" s="48">
         <f>-D10</f>
@@ -3833,13 +3803,13 @@
         <v>44651</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D12" s="48">
         <v>-92.211350293542097</v>
       </c>
       <c r="E12" s="48" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F12" s="49">
         <v>2</v>
@@ -3850,9 +3820,9 @@
       <c r="J12" s="48"/>
       <c r="K12" s="48"/>
       <c r="L12" s="50"/>
-      <c r="M12" s="83"/>
+      <c r="M12" s="85"/>
       <c r="N12" s="48" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="O12" s="48"/>
       <c r="P12" s="48">
@@ -3869,13 +3839,13 @@
         <v>44651</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D13" s="54">
         <v>-46.105675146770999</v>
       </c>
       <c r="E13" s="54" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F13" s="55">
         <v>4</v>
@@ -3898,9 +3868,9 @@
         <v>1293.9334637964778</v>
       </c>
       <c r="L13" s="50"/>
-      <c r="M13" s="83"/>
+      <c r="M13" s="85"/>
       <c r="N13" s="58" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="O13" s="48">
         <f>H11</f>
@@ -3926,7 +3896,7 @@
         <v>47.592954990215297</v>
       </c>
       <c r="E14" s="61" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F14" s="62">
         <f t="shared" ref="F14:F20" si="2">F4</f>
@@ -3936,9 +3906,9 @@
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
-      <c r="M14" s="83"/>
+      <c r="M14" s="85"/>
       <c r="N14" s="63" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="O14" s="15"/>
       <c r="P14" s="15">
@@ -3964,7 +3934,7 @@
         <v>271.42857142857099</v>
       </c>
       <c r="E15" s="61" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F15" s="62">
         <f t="shared" si="2"/>
@@ -3997,7 +3967,7 @@
         <v>23.796477495107599</v>
       </c>
       <c r="E16" s="61" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F16" s="62">
         <f t="shared" si="2"/>
@@ -4007,11 +3977,11 @@
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
-      <c r="M16" s="80" t="s">
-        <v>122</v>
+      <c r="M16" s="82" t="s">
+        <v>112</v>
       </c>
       <c r="N16" s="51" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="O16" s="48">
         <f>-(D12+D13)</f>
@@ -4037,7 +4007,7 @@
         <v>-342.81800391389402</v>
       </c>
       <c r="E17" s="61" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F17" s="62">
         <f t="shared" si="2"/>
@@ -4047,9 +4017,9 @@
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
-      <c r="M17" s="80"/>
+      <c r="M17" s="82"/>
       <c r="N17" s="51" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="O17" s="13"/>
       <c r="P17" s="48">
@@ -4075,7 +4045,7 @@
         <v>83.287671232876704</v>
       </c>
       <c r="E18" s="61" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F18" s="62">
         <f t="shared" si="2"/>
@@ -4108,7 +4078,7 @@
         <v>41.643835616438402</v>
       </c>
       <c r="E19" s="61" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F19" s="62">
         <f t="shared" si="2"/>
@@ -4118,11 +4088,11 @@
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
-      <c r="M19" s="80" t="s">
-        <v>123</v>
+      <c r="M19" s="82" t="s">
+        <v>113</v>
       </c>
       <c r="N19" s="51" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="O19" s="48">
         <f>-P20</f>
@@ -4148,7 +4118,7 @@
         <v>342.81800391389402</v>
       </c>
       <c r="E20" s="61" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F20" s="62">
         <f t="shared" si="2"/>
@@ -4158,9 +4128,9 @@
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
-      <c r="M20" s="80"/>
+      <c r="M20" s="82"/>
       <c r="N20" s="51" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="O20" s="13"/>
       <c r="P20" s="48">
@@ -4186,7 +4156,7 @@
         <v>92.211350293542097</v>
       </c>
       <c r="E21" s="61" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F21" s="62">
         <f>F12</f>
@@ -4219,7 +4189,7 @@
         <v>46.105675146770999</v>
       </c>
       <c r="E22" s="61" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F22" s="62">
         <f>F13</f>
@@ -4241,11 +4211,11 @@
         <f>H22</f>
         <v>1900</v>
       </c>
-      <c r="M22" s="80" t="s">
-        <v>124</v>
+      <c r="M22" s="82" t="s">
+        <v>114</v>
       </c>
       <c r="N22" s="58" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="O22" s="48">
         <f>D26</f>
@@ -4262,13 +4232,13 @@
         <v>44681</v>
       </c>
       <c r="C23" s="66" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D23" s="67">
         <v>-319.634703196347</v>
       </c>
       <c r="E23" s="67" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F23" s="68">
         <v>2</v>
@@ -4277,9 +4247,9 @@
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
-      <c r="M23" s="80"/>
+      <c r="M23" s="82"/>
       <c r="N23" s="63" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="O23" s="13"/>
       <c r="P23" s="48">
@@ -4296,13 +4266,13 @@
         <v>44681</v>
       </c>
       <c r="C24" s="66" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D24" s="67">
         <v>-277.777777777778</v>
       </c>
       <c r="E24" s="67" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F24" s="68">
         <v>3</v>
@@ -4311,9 +4281,9 @@
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
-      <c r="M24" s="80"/>
+      <c r="M24" s="82"/>
       <c r="N24" s="51" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="O24" s="48">
         <f>-P25</f>
@@ -4330,13 +4300,13 @@
         <v>44681</v>
       </c>
       <c r="C25" s="66" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D25" s="67">
         <v>-319.634703196347</v>
       </c>
       <c r="E25" s="67" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F25" s="68">
         <v>4</v>
@@ -4358,9 +4328,9 @@
         <f>K22+D23+D24+D25</f>
         <v>982.95281582952805</v>
       </c>
-      <c r="M25" s="80"/>
+      <c r="M25" s="82"/>
       <c r="N25" s="51" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="O25" s="13"/>
       <c r="P25" s="48">
@@ -4377,13 +4347,13 @@
         <v>44712</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D26" s="58">
         <v>600</v>
       </c>
       <c r="E26" s="58" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F26" s="49">
         <v>0</v>
@@ -4403,13 +4373,13 @@
         <v>44712</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D27" s="58">
         <v>-94.368340943683407</v>
       </c>
       <c r="E27" s="48" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F27" s="49">
         <v>2</v>
@@ -4432,13 +4402,13 @@
         <v>44712</v>
       </c>
       <c r="C28" s="53" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D28" s="54">
         <v>-94.368340943683407</v>
       </c>
       <c r="E28" s="54" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F28" s="55">
         <v>4</v>
@@ -4484,10 +4454,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4500,101 +4470,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="85" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="85" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1" s="85" t="s">
+      <c r="C1" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="73" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -4795,16 +4684,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -4857,7 +4746,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4870,13 +4759,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -4896,146 +4785,146 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="70">
-        <f>IF(xxCATALOG!A2="","",xxCATALOG!A2)</f>
-        <v>1</v>
+      <c r="A3" s="70" t="str">
+        <f>IF(CATALOG!A2="","",CATALOG!A2)</f>
+        <v/>
       </c>
       <c r="B3" s="70" t="str">
-        <f>IF(xxCATALOG!B2="","",xxCATALOG!B2)</f>
-        <v>Discount</v>
+        <f>IF(CATALOG!B2="","",CATALOG!B2)</f>
+        <v/>
       </c>
       <c r="C3" s="70" t="str">
-        <f>IF(xxCATALOG!C2="","",xxCATALOG!C2)</f>
-        <v>AMOUNT</v>
+        <f>IF(CATALOG!C2="","",CATALOG!C2)</f>
+        <v/>
       </c>
       <c r="D3" s="70" t="str">
-        <f>IF(xxCATALOG!D2="","",xxCATALOG!D2)</f>
-        <v>POINT_IN_TIME</v>
-      </c>
-      <c r="E3" s="70">
-        <f>IF(xxCATALOG!E2="","",xxCATALOG!E2)</f>
-        <v>0</v>
+        <f>IF(CATALOG!D2="","",CATALOG!D2)</f>
+        <v/>
+      </c>
+      <c r="E3" s="70" t="str">
+        <f>IF(CATALOG!E2="","",CATALOG!E2)</f>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="70">
-        <f>IF(xxCATALOG!A3="","",xxCATALOG!A3)</f>
-        <v>2</v>
+      <c r="A4" s="70" t="str">
+        <f>IF(CATALOG!A3="","",CATALOG!A3)</f>
+        <v/>
       </c>
       <c r="B4" s="70" t="str">
-        <f>IF(xxCATALOG!B3="","",xxCATALOG!B3)</f>
-        <v>SaaS Basic Subscription</v>
+        <f>IF(CATALOG!B3="","",CATALOG!B3)</f>
+        <v/>
       </c>
       <c r="C4" s="70" t="str">
-        <f>IF(xxCATALOG!C3="","",xxCATALOG!C3)</f>
-        <v>USE SALES PRICE</v>
+        <f>IF(CATALOG!C3="","",CATALOG!C3)</f>
+        <v/>
       </c>
       <c r="D4" s="70" t="str">
-        <f>IF(xxCATALOG!D3="","",xxCATALOG!D3)</f>
-        <v>RATABLE</v>
+        <f>IF(CATALOG!D3="","",CATALOG!D3)</f>
+        <v/>
       </c>
       <c r="E4" s="70" t="str">
-        <f>IF(xxCATALOG!E3="","",xxCATALOG!E3)</f>
+        <f>IF(CATALOG!E3="","",CATALOG!E3)</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="70">
-        <f>IF(xxCATALOG!A4="","",xxCATALOG!A4)</f>
-        <v>3</v>
+      <c r="A5" s="70" t="str">
+        <f>IF(CATALOG!A4="","",CATALOG!A4)</f>
+        <v/>
       </c>
       <c r="B5" s="70" t="str">
-        <f>IF(xxCATALOG!B4="","",xxCATALOG!B4)</f>
-        <v>SaaS Implementation</v>
+        <f>IF(CATALOG!B4="","",CATALOG!B4)</f>
+        <v/>
       </c>
       <c r="C5" s="70" t="str">
-        <f>IF(xxCATALOG!C4="","",xxCATALOG!C4)</f>
-        <v>USE SALES PRICE</v>
+        <f>IF(CATALOG!C4="","",CATALOG!C4)</f>
+        <v/>
       </c>
       <c r="D5" s="70" t="str">
-        <f>IF(xxCATALOG!D4="","",xxCATALOG!D4)</f>
-        <v>POINT_IN_TIME</v>
+        <f>IF(CATALOG!D4="","",CATALOG!D4)</f>
+        <v/>
       </c>
       <c r="E5" s="70" t="str">
-        <f>IF(xxCATALOG!E4="","",xxCATALOG!E4)</f>
+        <f>IF(CATALOG!E4="","",CATALOG!E4)</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="70">
-        <f>IF(xxCATALOG!A5="","",xxCATALOG!A5)</f>
-        <v>4</v>
+      <c r="A6" s="70" t="str">
+        <f>IF(CATALOG!A5="","",CATALOG!A5)</f>
+        <v/>
       </c>
       <c r="B6" s="70" t="str">
-        <f>IF(xxCATALOG!B5="","",xxCATALOG!B5)</f>
-        <v>SaaS Training</v>
+        <f>IF(CATALOG!B5="","",CATALOG!B5)</f>
+        <v/>
       </c>
       <c r="C6" s="70" t="str">
-        <f>IF(xxCATALOG!C5="","",xxCATALOG!C5)</f>
-        <v>USE SALES PRICE</v>
+        <f>IF(CATALOG!C5="","",CATALOG!C5)</f>
+        <v/>
       </c>
       <c r="D6" s="70" t="str">
-        <f>IF(xxCATALOG!D5="","",xxCATALOG!D5)</f>
-        <v>POINT_IN_TIME</v>
+        <f>IF(CATALOG!D5="","",CATALOG!D5)</f>
+        <v/>
       </c>
       <c r="E6" s="70" t="str">
-        <f>IF(xxCATALOG!E5="","",xxCATALOG!E5)</f>
+        <f>IF(CATALOG!E5="","",CATALOG!E5)</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="70">
-        <f>IF(xxCATALOG!A6="","",xxCATALOG!A6)</f>
-        <v>5</v>
+      <c r="A7" s="70" t="str">
+        <f>IF(CATALOG!A6="","",CATALOG!A6)</f>
+        <v/>
       </c>
       <c r="B7" s="70" t="str">
-        <f>IF(xxCATALOG!B6="","",xxCATALOG!B6)</f>
-        <v>SaaS Premium Subscription</v>
+        <f>IF(CATALOG!B6="","",CATALOG!B6)</f>
+        <v/>
       </c>
       <c r="C7" s="70" t="str">
-        <f>IF(xxCATALOG!C6="","",xxCATALOG!C6)</f>
-        <v>USE SALES PRICE</v>
+        <f>IF(CATALOG!C6="","",CATALOG!C6)</f>
+        <v/>
       </c>
       <c r="D7" s="70" t="str">
-        <f>IF(xxCATALOG!D6="","",xxCATALOG!D6)</f>
-        <v>RATABLE</v>
+        <f>IF(CATALOG!D6="","",CATALOG!D6)</f>
+        <v/>
       </c>
       <c r="E7" s="70" t="str">
-        <f>IF(xxCATALOG!E6="","",xxCATALOG!E6)</f>
+        <f>IF(CATALOG!E6="","",CATALOG!E6)</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="70">
-        <f>IF(xxCATALOG!A7="","",xxCATALOG!A7)</f>
-        <v>0</v>
+      <c r="A8" s="70" t="str">
+        <f>IF(CATALOG!A7="","",CATALOG!A7)</f>
+        <v/>
       </c>
       <c r="B8" s="70" t="str">
-        <f>IF(xxCATALOG!B7="","",xxCATALOG!B7)</f>
-        <v>Invoice</v>
+        <f>IF(CATALOG!B7="","",CATALOG!B7)</f>
+        <v/>
       </c>
       <c r="C8" s="70" t="str">
-        <f>IF(xxCATALOG!C7="","",xxCATALOG!C7)</f>
+        <f>IF(CATALOG!C7="","",CATALOG!C7)</f>
         <v/>
       </c>
       <c r="D8" s="70" t="str">
-        <f>IF(xxCATALOG!D7="","",xxCATALOG!D7)</f>
+        <f>IF(CATALOG!D7="","",CATALOG!D7)</f>
         <v/>
       </c>
       <c r="E8" s="70" t="str">
-        <f>IF(xxCATALOG!E7="","",xxCATALOG!E7)</f>
+        <f>IF(CATALOG!E7="","",CATALOG!E7)</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
+      <c r="A11" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
@@ -5045,16 +4934,16 @@
         <v>13</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5188,10 +5077,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="73"/>
+      <c r="A18" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="75"/>
       <c r="C18" s="16">
         <f>SUM(C13:C17)</f>
         <v>0</v>
@@ -5215,27 +5104,27 @@
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
+      <c r="A20" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5406,68 +5295,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:108" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="77" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="77"/>
+      <c r="A1" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="79"/>
       <c r="L1" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA1" s="76"/>
-      <c r="BB1" s="76"/>
-      <c r="CC1" s="76"/>
-      <c r="DD1" s="76"/>
+        <v>25</v>
+      </c>
+      <c r="AA1" s="78"/>
+      <c r="BB1" s="78"/>
+      <c r="CC1" s="78"/>
+      <c r="DD1" s="78"/>
     </row>
     <row r="2" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="L2" s="20"/>
-      <c r="AA2" s="76"/>
-      <c r="BB2" s="76"/>
-      <c r="CC2" s="76"/>
-      <c r="DD2" s="76"/>
+      <c r="AA2" s="78"/>
+      <c r="BB2" s="78"/>
+      <c r="CC2" s="78"/>
+      <c r="DD2" s="78"/>
     </row>
     <row r="3" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
@@ -5518,10 +5407,10 @@
         <f>EOD!A2</f>
         <v>0</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="BB3" s="76"/>
-      <c r="CC3" s="76"/>
-      <c r="DD3" s="76"/>
+      <c r="AA3" s="78"/>
+      <c r="BB3" s="78"/>
+      <c r="CC3" s="78"/>
+      <c r="DD3" s="78"/>
     </row>
     <row r="4" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="str">
@@ -5569,10 +5458,10 @@
         <v/>
       </c>
       <c r="L4" s="13"/>
-      <c r="AA4" s="76"/>
-      <c r="BB4" s="76"/>
-      <c r="CC4" s="76"/>
-      <c r="DD4" s="76"/>
+      <c r="AA4" s="78"/>
+      <c r="BB4" s="78"/>
+      <c r="CC4" s="78"/>
+      <c r="DD4" s="78"/>
     </row>
     <row r="5" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="str">
@@ -5620,10 +5509,10 @@
         <v/>
       </c>
       <c r="L5" s="13"/>
-      <c r="AA5" s="76"/>
-      <c r="BB5" s="76"/>
-      <c r="CC5" s="76"/>
-      <c r="DD5" s="76"/>
+      <c r="AA5" s="78"/>
+      <c r="BB5" s="78"/>
+      <c r="CC5" s="78"/>
+      <c r="DD5" s="78"/>
     </row>
     <row r="6" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="str">
@@ -5671,10 +5560,10 @@
         <v/>
       </c>
       <c r="L6" s="13"/>
-      <c r="AA6" s="76"/>
-      <c r="BB6" s="76"/>
-      <c r="CC6" s="76"/>
-      <c r="DD6" s="76"/>
+      <c r="AA6" s="78"/>
+      <c r="BB6" s="78"/>
+      <c r="CC6" s="78"/>
+      <c r="DD6" s="78"/>
     </row>
     <row r="7" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="str">
@@ -5722,10 +5611,10 @@
         <v/>
       </c>
       <c r="L7" s="13"/>
-      <c r="AA7" s="76"/>
-      <c r="BB7" s="76"/>
-      <c r="CC7" s="76"/>
-      <c r="DD7" s="76"/>
+      <c r="AA7" s="78"/>
+      <c r="BB7" s="78"/>
+      <c r="CC7" s="78"/>
+      <c r="DD7" s="78"/>
     </row>
     <row r="8" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
@@ -5736,33 +5625,33 @@
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
-      <c r="AA8" s="76"/>
-      <c r="BB8" s="76"/>
-      <c r="CC8" s="76"/>
-      <c r="DD8" s="76"/>
+      <c r="AA8" s="78"/>
+      <c r="BB8" s="78"/>
+      <c r="CC8" s="78"/>
+      <c r="DD8" s="78"/>
     </row>
     <row r="9" spans="1:108" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B9" s="26"/>
-      <c r="AA9" s="76"/>
+      <c r="AA9" s="78"/>
       <c r="AB9" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="BB9" s="76"/>
+        <v>37</v>
+      </c>
+      <c r="BB9" s="78"/>
       <c r="BC9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="CC9" s="76"/>
+        <v>38</v>
+      </c>
+      <c r="CC9" s="78"/>
       <c r="CD9" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="DD9" s="76"/>
+        <v>39</v>
+      </c>
+      <c r="DD9" s="78"/>
     </row>
     <row r="10" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B10" s="28">
         <v>0</v>
@@ -5839,9 +5728,9 @@
       <c r="Z10" s="28">
         <v>24</v>
       </c>
-      <c r="AA10" s="76"/>
+      <c r="AA10" s="78"/>
       <c r="AB10" s="28" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC10" s="28">
         <v>0</v>
@@ -5918,9 +5807,9 @@
       <c r="BA10" s="28">
         <v>24</v>
       </c>
-      <c r="BB10" s="76"/>
+      <c r="BB10" s="78"/>
       <c r="BC10" s="28" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BD10" s="28">
         <v>0</v>
@@ -5997,9 +5886,9 @@
       <c r="CB10" s="28">
         <v>24</v>
       </c>
-      <c r="CC10" s="76"/>
+      <c r="CC10" s="78"/>
       <c r="CD10" s="28" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="CE10" s="28">
         <v>0</v>
@@ -6076,7 +5965,7 @@
       <c r="DC10" s="28">
         <v>24</v>
       </c>
-      <c r="DD10" s="76"/>
+      <c r="DD10" s="78"/>
     </row>
     <row r="11" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="str">
@@ -6183,7 +6072,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AA11" s="76"/>
+      <c r="AA11" s="78"/>
       <c r="AB11" s="13" t="str">
         <f>IF($A3="","",$A3)</f>
         <v/>
@@ -6288,7 +6177,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="BB11" s="76"/>
+      <c r="BB11" s="78"/>
       <c r="BC11" s="13" t="str">
         <f>IF($A3="","",$A3)</f>
         <v/>
@@ -6393,7 +6282,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="CC11" s="76"/>
+      <c r="CC11" s="78"/>
       <c r="CD11" s="30" t="str">
         <f>IF($A3="","",$A3)</f>
         <v/>
@@ -6498,7 +6387,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="DD11" s="76"/>
+      <c r="DD11" s="78"/>
     </row>
     <row r="12" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="str">
@@ -6605,7 +6494,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AA12" s="76"/>
+      <c r="AA12" s="78"/>
       <c r="AB12" s="13" t="str">
         <f>IF($A4="","",$A4)</f>
         <v/>
@@ -6710,7 +6599,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="BB12" s="76"/>
+      <c r="BB12" s="78"/>
       <c r="BC12" s="13" t="str">
         <f>IF($A4="","",$A4)</f>
         <v/>
@@ -6815,7 +6704,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="CC12" s="76"/>
+      <c r="CC12" s="78"/>
       <c r="CD12" s="30" t="str">
         <f>IF($A4="","",$A4)</f>
         <v/>
@@ -6920,7 +6809,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="DD12" s="76"/>
+      <c r="DD12" s="78"/>
     </row>
     <row r="13" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="str">
@@ -7027,7 +6916,7 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AA13" s="76"/>
+      <c r="AA13" s="78"/>
       <c r="AB13" s="13" t="str">
         <f>IF($A5="","",$A5)</f>
         <v/>
@@ -7132,7 +7021,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="BB13" s="76"/>
+      <c r="BB13" s="78"/>
       <c r="BC13" s="13" t="str">
         <f>IF($A5="","",$A5)</f>
         <v/>
@@ -7237,7 +7126,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="CC13" s="76"/>
+      <c r="CC13" s="78"/>
       <c r="CD13" s="30" t="str">
         <f>IF($A5="","",$A5)</f>
         <v/>
@@ -7342,7 +7231,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="DD13" s="76"/>
+      <c r="DD13" s="78"/>
     </row>
     <row r="14" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="str">
@@ -7449,7 +7338,7 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AA14" s="76"/>
+      <c r="AA14" s="78"/>
       <c r="AB14" s="13" t="str">
         <f>IF($A6="","",$A6)</f>
         <v/>
@@ -7554,7 +7443,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="BB14" s="76"/>
+      <c r="BB14" s="78"/>
       <c r="BC14" s="13" t="str">
         <f>IF($A6="","",$A6)</f>
         <v/>
@@ -7659,7 +7548,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="CC14" s="76"/>
+      <c r="CC14" s="78"/>
       <c r="CD14" s="30" t="str">
         <f>IF($A6="","",$A6)</f>
         <v/>
@@ -7764,7 +7653,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="DD14" s="76"/>
+      <c r="DD14" s="78"/>
     </row>
     <row r="15" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="str">
@@ -7871,7 +7760,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AA15" s="76"/>
+      <c r="AA15" s="78"/>
       <c r="AB15" s="13" t="str">
         <f>IF($A7="","",$A7)</f>
         <v/>
@@ -7976,7 +7865,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="BB15" s="76"/>
+      <c r="BB15" s="78"/>
       <c r="BC15" s="13" t="str">
         <f>IF($A7="","",$A7)</f>
         <v/>
@@ -8081,7 +7970,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="CC15" s="76"/>
+      <c r="CC15" s="78"/>
       <c r="CD15" s="30" t="str">
         <f>IF($A7="","",$A7)</f>
         <v/>
@@ -8186,38 +8075,38 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="DD15" s="76"/>
+      <c r="DD15" s="78"/>
     </row>
     <row r="17" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A17" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
+      <c r="A17" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D18" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="18" t="s">
-        <v>55</v>
-      </c>
       <c r="F18" s="18" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -8376,7 +8265,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="30">
@@ -8397,35 +8286,35 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A27" s="72" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
+      <c r="A27" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D28" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="18" t="s">
-        <v>55</v>
-      </c>
       <c r="F28" s="18" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -8584,16 +8473,16 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A35" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
+      <c r="A35" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="74"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
     </row>
     <row r="36" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="33"/>
@@ -8771,29 +8660,29 @@
       <c r="F43" s="25"/>
     </row>
     <row r="44" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A44" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="B44" s="72"/>
-      <c r="C44" s="72"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
+      <c r="A44" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="74"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="74"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E45" s="18" t="s">
         <v>16</v>
@@ -8802,7 +8691,7 @@
         <v>3</v>
       </c>
       <c r="G45" s="28" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -8830,8 +8719,8 @@
         <f>IF(A46="","",A38)</f>
         <v/>
       </c>
-      <c r="G46" s="75" t="s">
-        <v>45</v>
+      <c r="G46" s="77" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -8859,7 +8748,7 @@
         <f>IF(A47="","",A39)</f>
         <v/>
       </c>
-      <c r="G47" s="75"/>
+      <c r="G47" s="77"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="str">
@@ -8886,7 +8775,7 @@
         <f>IF(A48="","",A40)</f>
         <v/>
       </c>
-      <c r="G48" s="75"/>
+      <c r="G48" s="77"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="str">
@@ -8913,7 +8802,7 @@
         <f>IF(A49="","",A41)</f>
         <v/>
       </c>
-      <c r="G49" s="75"/>
+      <c r="G49" s="77"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="str">
@@ -8940,7 +8829,7 @@
         <f>IF(A50="","",A42)</f>
         <v/>
       </c>
-      <c r="G50" s="75"/>
+      <c r="G50" s="77"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="str">
@@ -8968,7 +8857,7 @@
         <v/>
       </c>
       <c r="G51" s="36" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -9014,172 +8903,172 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -9215,13 +9104,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E1" s="39" t="s">
         <v>16</v>

--- a/src/test/resources/TestDriver/TestRevenue/Model/Revenue_model_changed_V4.xlsx
+++ b/src/test/resources/TestDriver/TestRevenue/Model/Revenue_model_changed_V4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestRevenue\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0879ED3B-B76E-4FC1-97BE-142D7BD36720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1EF1F9-1617-4E9E-BF73-7D155E80EA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1106,8 +1106,8 @@
   </sheetPr>
   <dimension ref="A1:Q105"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4457,7 +4457,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4500,7 +4500,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I6"/>
+      <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4746,7 +4746,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4952,7 +4952,7 @@
         <v/>
       </c>
       <c r="B13" s="13" t="str">
-        <f>IFERROR(VLOOKUP(A13,A3:$B$7,2,FALSE()),"")</f>
+        <f>IFERROR(VLOOKUP(A13,$A$3:$B$8,2,FALSE()),"")</f>
         <v/>
       </c>
       <c r="C13" s="15" t="str">
@@ -4960,7 +4960,7 @@
         <v/>
       </c>
       <c r="D13" s="15" t="str">
-        <f>IFERROR(IF(VLOOKUP(B13,$B$3:$C$7,2,FALSE())="USE SALES PRICE",C13,VLOOKUP(B13,$B$3:$E$7,4,FALSE())),"")</f>
+        <f>IFERROR(IF(VLOOKUP(B13,$B$3:$C$8,2,FALSE())="USE SALES PRICE",C13,VLOOKUP(B13,$B$3:$E$8,4,FALSE())),"")</f>
         <v/>
       </c>
       <c r="E13" s="15" t="str">
@@ -4978,7 +4978,7 @@
         <v/>
       </c>
       <c r="B14" s="13" t="str">
-        <f>IFERROR(VLOOKUP(A14,A4:$B$7,2,FALSE()),"")</f>
+        <f>IFERROR(VLOOKUP(A14,$A$3:$B$8,2,FALSE()),"")</f>
         <v/>
       </c>
       <c r="C14" s="15" t="str">
@@ -4986,7 +4986,7 @@
         <v/>
       </c>
       <c r="D14" s="15" t="str">
-        <f>IFERROR(IF(VLOOKUP(B14,$B$3:$C$7,2,FALSE())="USE SALES PRICE",C14,VLOOKUP(B14,$B$3:$E$7,4,FALSE())),"")</f>
+        <f>IFERROR(IF(VLOOKUP(B14,$B$3:$C$8,2,FALSE())="USE SALES PRICE",C14,VLOOKUP(B14,$B$3:$E$8,4,FALSE())),"")</f>
         <v/>
       </c>
       <c r="E14" s="15" t="str">
@@ -5004,7 +5004,7 @@
         <v/>
       </c>
       <c r="B15" s="13" t="str">
-        <f>IFERROR(VLOOKUP(A15,A5:$B$7,2,FALSE()),"")</f>
+        <f>IFERROR(VLOOKUP(A15,$A$3:$B$8,2,FALSE()),"")</f>
         <v/>
       </c>
       <c r="C15" s="15" t="str">
@@ -5012,7 +5012,7 @@
         <v/>
       </c>
       <c r="D15" s="15" t="str">
-        <f>IFERROR(IF(VLOOKUP(B15,$B$3:$C$7,2,FALSE())="USE SALES PRICE",C15,VLOOKUP(B15,$B$3:$E$7,4,FALSE())),"")</f>
+        <f>IFERROR(IF(VLOOKUP(B15,$B$3:$C$8,2,FALSE())="USE SALES PRICE",C15,VLOOKUP(B15,$B$3:$E$8,4,FALSE())),"")</f>
         <v/>
       </c>
       <c r="E15" s="15" t="str">
@@ -5030,7 +5030,7 @@
         <v/>
       </c>
       <c r="B16" s="13" t="str">
-        <f>IFERROR(VLOOKUP(A16,A6:$B$7,2,FALSE()),"")</f>
+        <f>IFERROR(VLOOKUP(A16,$A$3:$B$8,2,FALSE()),"")</f>
         <v/>
       </c>
       <c r="C16" s="15" t="str">
@@ -5038,7 +5038,7 @@
         <v/>
       </c>
       <c r="D16" s="15" t="str">
-        <f>IFERROR(IF(VLOOKUP(B16,$B$3:$C$7,2,FALSE())="USE SALES PRICE",C16,VLOOKUP(B16,$B$3:$E$7,4,FALSE())),"")</f>
+        <f>IFERROR(IF(VLOOKUP(B16,$B$3:$C$8,2,FALSE())="USE SALES PRICE",C16,VLOOKUP(B16,$B$3:$E$8,4,FALSE())),"")</f>
         <v/>
       </c>
       <c r="E16" s="15" t="str">
@@ -5056,7 +5056,7 @@
         <v/>
       </c>
       <c r="B17" s="13" t="str">
-        <f>IFERROR(VLOOKUP(A17,A7:$B$7,2,FALSE()),"")</f>
+        <f>IFERROR(VLOOKUP(A17,$A$3:$B$8,2,FALSE()),"")</f>
         <v/>
       </c>
       <c r="C17" s="15" t="str">

--- a/src/test/resources/TestDriver/TestRevenue/Model/Revenue_model_changed_V4.xlsx
+++ b/src/test/resources/TestDriver/TestRevenue/Model/Revenue_model_changed_V4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestRevenue\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1EF1F9-1617-4E9E-BF73-7D155E80EA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9A7A8A-A9A7-417D-BD22-EE35F4AC20CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="xxJOB" sheetId="10" r:id="rId1"/>
@@ -4745,7 +4745,7 @@
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -5259,8 +5259,8 @@
   </sheetPr>
   <dimension ref="A1:DD51"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5392,7 +5392,7 @@
         <v/>
       </c>
       <c r="I3" s="13" t="str">
-        <f>IF($A3="","",VLOOKUP(A3,ProductCatalog_Allocation_Calc!$A$3:$D$7,4,FALSE()))</f>
+        <f>IF($A3="","",VLOOKUP(A3,ProductCatalog_Allocation_Calc!$A$3:$D$8,4,FALSE()))</f>
         <v/>
       </c>
       <c r="J3" s="23" t="str">
@@ -5446,7 +5446,7 @@
         <v/>
       </c>
       <c r="I4" s="13" t="str">
-        <f>IF($A4="","",VLOOKUP(A4,ProductCatalog_Allocation_Calc!$A$3:$D$7,4,FALSE()))</f>
+        <f>IF($A4="","",VLOOKUP(A4,ProductCatalog_Allocation_Calc!$A$3:$D$8,4,FALSE()))</f>
         <v/>
       </c>
       <c r="J4" s="23" t="str">
@@ -5497,7 +5497,7 @@
         <v/>
       </c>
       <c r="I5" s="13" t="str">
-        <f>IF($A5="","",VLOOKUP(A5,ProductCatalog_Allocation_Calc!$A$3:$D$7,4,FALSE()))</f>
+        <f>IF($A5="","",VLOOKUP(A5,ProductCatalog_Allocation_Calc!$A$3:$D$8,4,FALSE()))</f>
         <v/>
       </c>
       <c r="J5" s="23" t="str">
@@ -5548,7 +5548,7 @@
         <v/>
       </c>
       <c r="I6" s="13" t="str">
-        <f>IF($A6="","",VLOOKUP(A6,ProductCatalog_Allocation_Calc!$A$3:$D$7,4,FALSE()))</f>
+        <f>IF($A6="","",VLOOKUP(A6,ProductCatalog_Allocation_Calc!$A$3:$D$8,4,FALSE()))</f>
         <v/>
       </c>
       <c r="J6" s="23" t="str">
@@ -5583,7 +5583,7 @@
         <v/>
       </c>
       <c r="E7" s="22" t="str">
-        <f>IF($A7="","",#REF!)</f>
+        <f>IF($A7="","",VLOOKUP(A7,REV!$E$2:$I$8,3,FALSE()))</f>
         <v/>
       </c>
       <c r="F7" s="13" t="str">
@@ -5599,7 +5599,7 @@
         <v/>
       </c>
       <c r="I7" s="13" t="str">
-        <f>IF($A7="","",VLOOKUP(A7,ProductCatalog_Allocation_Calc!$A$3:$D$7,4,FALSE()))</f>
+        <f>IF($A7="","",VLOOKUP(A7,ProductCatalog_Allocation_Calc!$A$3:$D$8,4,FALSE()))</f>
         <v/>
       </c>
       <c r="J7" s="23" t="str">
